--- a/input/tablas.xlsx
+++ b/input/tablas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/soledadaraya/Documents/GitHub/taller_02/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EEC0A40-A1AB-1F47-8C39-318C9743ABD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB77200-7CE5-B34E-B732-396D94EF5EB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6140" yWindow="2680" windowWidth="28040" windowHeight="17440" activeTab="3" xr2:uid="{F706F9F3-2EC5-E347-A8CB-AB9A1E8E8D8F}"/>
   </bookViews>
